--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67836.77585803372</v>
+        <v>65137.7237641258</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>153.8072380324132</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.70122005611973</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>109.3701406433289</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>139.2506473542477</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>47.3588504049106</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>87.67046054917287</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>215.3220633834757</v>
+        <v>69.27913308599163</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>87.84129258094033</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>136.5335673127884</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1711248816494</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0911747868545</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>74.66512481240217</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.79797317841044</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>225.8294102072821</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>172.1586546280593</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>166.6469816084582</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>100.2875319197389</v>
       </c>
       <c r="G7" t="n">
         <v>166.5641028040799</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.1358328502781</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.1500311756599</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8489350595716</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.241199726252</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>94.079501459182</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>115.4509545620919</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>85.87032620558836</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>79.41653965146595</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.1050643599723</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>215.1587701604421</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615208</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530787</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>129.4796431228778</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>119.5179048891077</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905236</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>72.60410776434584</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.09841665934233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811962</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>99.39152647956271</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>113.4877306469552</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>184.8190037993211</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812027</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018863</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605715972</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179706</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>141.3831318263017</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670943</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>38.61213096654775</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179031</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428128</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670948</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673021</v>
+        <v>228.9553704673016</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>520.5803211678658</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="C2" t="n">
-        <v>520.5803211678658</v>
+        <v>583.26140202276</v>
       </c>
       <c r="D2" t="n">
-        <v>520.5803211678658</v>
+        <v>583.26140202276</v>
       </c>
       <c r="E2" t="n">
-        <v>520.5803211678658</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F2" t="n">
-        <v>331.160536151381</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079192</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020267</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652796</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652796</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652796</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652796</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="V2" t="n">
-        <v>710.0001061843506</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="W2" t="n">
-        <v>520.5803211678658</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="X2" t="n">
-        <v>520.5803211678658</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="Y2" t="n">
-        <v>520.5803211678658</v>
+        <v>738.6222485201471</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>609.4451291155344</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="C3" t="n">
-        <v>609.4451291155344</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="D3" t="n">
-        <v>609.4451291155344</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="E3" t="n">
         <v>450.2076741100789</v>
@@ -4401,58 +4401,58 @@
         <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>609.4451291155344</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>609.4451291155344</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>609.4451291155344</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V3" t="n">
-        <v>609.4451291155344</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W3" t="n">
-        <v>609.4451291155344</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X3" t="n">
-        <v>609.4451291155344</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y3" t="n">
-        <v>609.4451291155344</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334.5856825036342</v>
+        <v>241.4932384301349</v>
       </c>
       <c r="C4" t="n">
-        <v>165.6494995757273</v>
+        <v>241.4932384301349</v>
       </c>
       <c r="D4" t="n">
-        <v>165.6494995757273</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="E4" t="n">
-        <v>165.6494995757273</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="F4" t="n">
-        <v>165.6494995757273</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242516</v>
+        <v>559.1902876777541</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608018</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768592</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="S4" t="n">
-        <v>524.0054675201189</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="T4" t="n">
-        <v>524.0054675201189</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="U4" t="n">
-        <v>334.5856825036342</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="V4" t="n">
-        <v>334.5856825036342</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="W4" t="n">
-        <v>334.5856825036342</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="X4" t="n">
-        <v>334.5856825036342</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="Y4" t="n">
-        <v>334.5856825036342</v>
+        <v>423.1417032603746</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1082.333705721316</v>
+        <v>1409.332425272546</v>
       </c>
       <c r="C5" t="n">
-        <v>1082.333705721316</v>
+        <v>1409.332425272546</v>
       </c>
       <c r="D5" t="n">
-        <v>864.8366720006331</v>
+        <v>1339.353502963464</v>
       </c>
       <c r="E5" t="n">
-        <v>864.8366720006331</v>
+        <v>953.5652503652193</v>
       </c>
       <c r="F5" t="n">
-        <v>453.8507672110256</v>
+        <v>542.5793455756118</v>
       </c>
       <c r="G5" t="n">
-        <v>37.56616013742912</v>
+        <v>126.2947385020154</v>
       </c>
       <c r="H5" t="n">
-        <v>37.56616013742912</v>
+        <v>126.2947385020154</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742912</v>
+        <v>37.56616013742917</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620871</v>
+        <v>125.6123058620872</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405708</v>
+        <v>308.3091729405706</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714455</v>
+        <v>571.8625535714456</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672685</v>
+        <v>896.7859082672692</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.580670917812</v>
+        <v>1231.580670917813</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.38261037952</v>
+        <v>1534.382610379521</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280669</v>
+        <v>1758.316059280672</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871456</v>
+        <v>1878.308006871459</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871456</v>
+        <v>1878.308006871459</v>
       </c>
       <c r="S5" t="n">
-        <v>1878.308006871456</v>
+        <v>1740.395312616117</v>
       </c>
       <c r="T5" t="n">
-        <v>1667.024042344538</v>
+        <v>1740.395312616117</v>
       </c>
       <c r="U5" t="n">
-        <v>1413.396593064886</v>
+        <v>1740.395312616117</v>
       </c>
       <c r="V5" t="n">
-        <v>1082.333705721316</v>
+        <v>1409.332425272546</v>
       </c>
       <c r="W5" t="n">
-        <v>1082.333705721316</v>
+        <v>1409.332425272546</v>
       </c>
       <c r="X5" t="n">
-        <v>1082.333705721316</v>
+        <v>1409.332425272546</v>
       </c>
       <c r="Y5" t="n">
-        <v>1082.333705721316</v>
+        <v>1409.332425272546</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408.4544457641209</v>
+        <v>763.4912415315199</v>
       </c>
       <c r="C6" t="n">
-        <v>333.0351277717954</v>
+        <v>589.0382122503929</v>
       </c>
       <c r="D6" t="n">
-        <v>184.1007181105442</v>
+        <v>440.1038025891416</v>
       </c>
       <c r="E6" t="n">
-        <v>184.1007181105442</v>
+        <v>280.8663475836861</v>
       </c>
       <c r="F6" t="n">
-        <v>37.56616013742912</v>
+        <v>134.331789610571</v>
       </c>
       <c r="G6" t="n">
-        <v>37.56616013742912</v>
+        <v>134.331789610571</v>
       </c>
       <c r="H6" t="n">
-        <v>37.56616013742912</v>
+        <v>37.56616013742917</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742912</v>
+        <v>37.56616013742917</v>
       </c>
       <c r="J6" t="n">
-        <v>196.0181193845648</v>
+        <v>71.18799439756023</v>
       </c>
       <c r="K6" t="n">
-        <v>331.6380140670235</v>
+        <v>254.1071828887995</v>
       </c>
       <c r="L6" t="n">
-        <v>560.3182401572652</v>
+        <v>482.7874089790414</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.199471857951</v>
+        <v>769.0033148491827</v>
       </c>
       <c r="N6" t="n">
-        <v>1333.399306010213</v>
+        <v>1077.203149001446</v>
       </c>
       <c r="O6" t="n">
-        <v>1593.122147335877</v>
+        <v>1336.92599032711</v>
       </c>
       <c r="P6" t="n">
-        <v>1782.239558826607</v>
+        <v>1801.807222027796</v>
       </c>
       <c r="Q6" t="n">
-        <v>1872.849388978993</v>
+        <v>1878.308006871459</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871456</v>
+        <v>1878.308006871459</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856705</v>
+        <v>1736.823381856708</v>
       </c>
       <c r="T6" t="n">
-        <v>1541.566225055443</v>
+        <v>1541.566225055445</v>
       </c>
       <c r="U6" t="n">
-        <v>1313.455709694552</v>
+        <v>1313.455709694554</v>
       </c>
       <c r="V6" t="n">
-        <v>1078.303601462809</v>
+        <v>1139.558078757121</v>
       </c>
       <c r="W6" t="n">
-        <v>824.0662447346076</v>
+        <v>1139.558078757121</v>
       </c>
       <c r="X6" t="n">
-        <v>616.2147445290748</v>
+        <v>931.7065785515879</v>
       </c>
       <c r="Y6" t="n">
-        <v>408.4544457641209</v>
+        <v>931.7065785515879</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>374.1430130793867</v>
+        <v>476.0494488469712</v>
       </c>
       <c r="C7" t="n">
-        <v>205.8127286263987</v>
+        <v>307.1132659190642</v>
       </c>
       <c r="D7" t="n">
-        <v>205.8127286263987</v>
+        <v>307.1132659190642</v>
       </c>
       <c r="E7" t="n">
-        <v>205.8127286263987</v>
+        <v>307.1132659190642</v>
       </c>
       <c r="F7" t="n">
         <v>205.8127286263987</v>
       </c>
       <c r="G7" t="n">
-        <v>37.56616013742912</v>
+        <v>37.56616013742917</v>
       </c>
       <c r="H7" t="n">
-        <v>37.56616013742912</v>
+        <v>37.56616013742917</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742912</v>
+        <v>37.56616013742917</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256554</v>
+        <v>45.01194249256564</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696027</v>
+        <v>187.0844868696029</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101288</v>
+        <v>424.4148644101291</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467494</v>
+        <v>685.0355944467499</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609263</v>
+        <v>944.8939624609269</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103174</v>
+        <v>1168.898929103175</v>
       </c>
       <c r="P7" t="n">
         <v>1337.053193890531</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.03941055281</v>
+        <v>1370.039410552811</v>
       </c>
       <c r="R7" t="n">
-        <v>1370.03941055281</v>
+        <v>1255.760791512126</v>
       </c>
       <c r="S7" t="n">
-        <v>1370.03941055281</v>
+        <v>1054.599143859944</v>
       </c>
       <c r="T7" t="n">
-        <v>1145.949577159303</v>
+        <v>1054.599143859944</v>
       </c>
       <c r="U7" t="n">
-        <v>856.8170521832909</v>
+        <v>765.4666188839318</v>
       </c>
       <c r="V7" t="n">
-        <v>602.1325639774041</v>
+        <v>765.4666188839318</v>
       </c>
       <c r="W7" t="n">
-        <v>602.1325639774041</v>
+        <v>476.0494488469712</v>
       </c>
       <c r="X7" t="n">
-        <v>374.1430130793867</v>
+        <v>476.0494488469712</v>
       </c>
       <c r="Y7" t="n">
-        <v>374.1430130793867</v>
+        <v>476.0494488469712</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>861.3216348137596</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C8" t="n">
-        <v>861.3216348137596</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D8" t="n">
-        <v>861.3216348137596</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>861.3216348137596</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>450.335730024152</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2321.022995106331</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320765</v>
+        <v>1989.96010776276</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.926725050651</v>
+        <v>1637.191452492646</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.460966789571</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137596</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380233</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694951</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425661</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.04689843412</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800313</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800313</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800313</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800313</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1556.227393153825</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.24891234856</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465113</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095506</v>
+        <v>927.4217213921329</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115333</v>
+        <v>927.4217213921329</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800313</v>
+        <v>706.6291422486028</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1894.446607880606</v>
+        <v>1872.090169197694</v>
       </c>
       <c r="C11" t="n">
-        <v>1525.484090940195</v>
+        <v>1503.127652257283</v>
       </c>
       <c r="D11" t="n">
-        <v>1167.218392333444</v>
+        <v>1144.861953650532</v>
       </c>
       <c r="E11" t="n">
-        <v>781.4301397351999</v>
+        <v>1144.861953650533</v>
       </c>
       <c r="F11" t="n">
-        <v>370.4442349455923</v>
+        <v>733.8760488609249</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455923</v>
+        <v>319.2602843020703</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592077</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535297</v>
@@ -5060,31 +5060,31 @@
         <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464063</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.99935034538</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926744</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048272</v>
+        <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>2988.4639147047</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434587</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173507</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2262.229501173507</v>
+        <v>1872.090169197694</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5103,40 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335452</v>
+        <v>84.53144813504287</v>
       </c>
       <c r="L12" t="n">
-        <v>773.170610991497</v>
+        <v>503.2284887929944</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948026</v>
+        <v>1011.185054749523</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649236</v>
+        <v>1546.994364450733</v>
       </c>
       <c r="O12" t="n">
-        <v>2284.877530981759</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>365.7608055583767</v>
+        <v>315.5927890696632</v>
       </c>
       <c r="C13" t="n">
-        <v>365.7608055583767</v>
+        <v>315.5927890696632</v>
       </c>
       <c r="D13" t="n">
-        <v>365.7608055583767</v>
+        <v>315.5927890696632</v>
       </c>
       <c r="E13" t="n">
-        <v>365.7608055583768</v>
+        <v>315.5927890696632</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047325</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592077</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592077</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.62761945888</v>
+        <v>1949.247121276104</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893321</v>
+        <v>1728.355788710544</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.644593842772</v>
+        <v>1439.264095659995</v>
       </c>
       <c r="V13" t="n">
-        <v>1103.960105636885</v>
+        <v>1184.579607454108</v>
       </c>
       <c r="W13" t="n">
-        <v>814.5429355999241</v>
+        <v>895.1624374171477</v>
       </c>
       <c r="X13" t="n">
-        <v>586.5533847019068</v>
+        <v>667.1728865191303</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.7608055583767</v>
+        <v>446.3803073756002</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,16 +5361,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711975</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888044</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5440,16 +5440,16 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>276.2988476925458</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
         <v>2327.76484885336</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.294644713841</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3584617859341</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>747.3584617859341</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>599.445368203541</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1279.328525141786</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.294644713841</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6157,10 +6157,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925705</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908938</v>
@@ -6619,10 +6619,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797742</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188004</v>
+        <v>763.7541388327647</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908935</v>
+        <v>594.8179559048579</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908935</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908935</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908936</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533435</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327548</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925703</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490402</v>
+        <v>945.4026036630044</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908938</v>
@@ -7561,16 +7561,16 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7582,7 +7582,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7783,34 +7783,34 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,19 +8137,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484661</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>74.60115408961762</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496444</v>
+        <v>15.76852197496433</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>47.77706445331359</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>180.4700260914589</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>278.5493133433898</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.25156091790208</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>40.00791436438823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878354</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.62877730350829</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>74.81873317893265</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184549</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>50.35233705905947</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>25.90314313382359</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>213.9188905722482</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.4862366927525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405082</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>40.90318636666117</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>31.93331737597606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>67.31863952450693</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405076</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4949402405079</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194198</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>144.8013425629424</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.22910392194282</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219424</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0033420516646</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194265</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194261</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194208</v>
+        <v>57.22910392194254</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>984099.5158938463</v>
+        <v>984099.5158938459</v>
       </c>
     </row>
     <row r="6">
@@ -26314,25 +26314,25 @@
         <v>348942.7521923205</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923207</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>311350.4288166186</v>
+        <v>311350.4288166185</v>
       </c>
       <c r="F2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682526</v>
@@ -26341,16 +26341,16 @@
         <v>343037.3048682527</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="M2" t="n">
         <v>343037.3048682526</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682526</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912899</v>
+        <v>312214.8578912906</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972652</v>
+        <v>175413.4991972643</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545776</v>
+        <v>313577.1573545774</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704284</v>
+        <v>189308.2687704288</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030182</v>
+        <v>72591.00846030196</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925506</v>
+        <v>43280.54279925484</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273083</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320235</v>
+        <v>49839.57413202355</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>195152.1081057575</v>
+        <v>195152.1081057573</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130576</v>
+        <v>146359.3674130577</v>
       </c>
       <c r="E4" t="n">
         <v>14111.33351720851</v>
@@ -26436,25 +26436,25 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
+        <v>14216.75207685506</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685506</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685506</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26470,13 +26470,13 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638308</v>
+        <v>79427.52208638312</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738571</v>
+        <v>85137.48506738567</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-577569.127403345</v>
+        <v>-577569.1274033448</v>
       </c>
       <c r="C6" t="n">
-        <v>-237851.7358911098</v>
+        <v>-237851.7358911106</v>
       </c>
       <c r="D6" t="n">
-        <v>-65767.88685784722</v>
+        <v>-65767.88685784632</v>
       </c>
       <c r="E6" t="n">
-        <v>-101475.5471225532</v>
+        <v>-101696.6784365278</v>
       </c>
       <c r="F6" t="n">
-        <v>38389.75419706215</v>
+        <v>38355.01627162598</v>
       </c>
       <c r="G6" t="n">
-        <v>227698.0229674907</v>
+        <v>227663.2850420548</v>
       </c>
       <c r="H6" t="n">
-        <v>227698.0229674905</v>
+        <v>227663.2850420547</v>
       </c>
       <c r="I6" t="n">
-        <v>227698.0229674907</v>
+        <v>227663.2850420547</v>
       </c>
       <c r="J6" t="n">
-        <v>178633.0782389459</v>
+        <v>178598.34031351</v>
       </c>
       <c r="K6" t="n">
-        <v>155107.0145071888</v>
+        <v>155072.2765817529</v>
       </c>
       <c r="L6" t="n">
-        <v>184417.4801682357</v>
+        <v>184382.7422427999</v>
       </c>
       <c r="M6" t="n">
-        <v>145800.6192547596</v>
+        <v>145765.8813293239</v>
       </c>
       <c r="N6" t="n">
-        <v>177858.4488354672</v>
+        <v>177823.7109100313</v>
       </c>
       <c r="O6" t="n">
-        <v>227698.0229674907</v>
+        <v>227663.2850420547</v>
       </c>
       <c r="P6" t="n">
-        <v>227698.0229674904</v>
+        <v>227663.2850420547</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074283001</v>
+        <v>791.2679074283005</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178641</v>
+        <v>469.5770017178647</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490096</v>
+        <v>969.2208239490092</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153955</v>
+        <v>242.7979665153961</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892394</v>
+        <v>142.7969846892386</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974114</v>
+        <v>268.1763450974113</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267229</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515442</v>
+        <v>282.0514145515447</v>
       </c>
       <c r="D4" t="n">
-        <v>171.007830382175</v>
+        <v>171.0078303821742</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.487464150639</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515442</v>
+        <v>282.0514145515447</v>
       </c>
       <c r="L4" t="n">
-        <v>171.007830382175</v>
+        <v>171.0078303821742</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515442</v>
+        <v>282.0514145515447</v>
       </c>
       <c r="L4" t="n">
-        <v>171.007830382175</v>
+        <v>171.0078303821742</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>211.4656537385943</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
         <v>219.3504585753915</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27436,10 +27436,10 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>288.0510384140152</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>48.27493981207203</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>10.51959733670193</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377097</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>101.2566226133018</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>119.1097952463234</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713037</v>
+        <v>98.73949432713032</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>139.3609782372072</v>
+        <v>285.4039085346913</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
-        <v>87.8412925809404</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5335673127885</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>98.04337417591357</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841044</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224379</v>
+        <v>30.79801895224376</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>60.64193252136599</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5998394901696713</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>45.13351610319238</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>149.5409427785071</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5404054555728</v>
+        <v>112.5404054555727</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502782</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>199.15003117566</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.8489350595716</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>317.468201313772</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>135.5942955663701</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>93.96165397634894</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>115.2459207102715</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-2.98632585327141e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274571</v>
+        <v>3.180976512274573</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633196</v>
+        <v>32.57717570633198</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894655</v>
+        <v>122.6345969894656</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586641</v>
+        <v>269.9814052586643</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232467</v>
+        <v>404.632141023247</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607698</v>
+        <v>501.9819509607701</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109326</v>
+        <v>558.5516420109329</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264329</v>
+        <v>567.5895915264331</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325025</v>
+        <v>535.9587563325028</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857239</v>
+        <v>457.4283986857242</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398908</v>
+        <v>343.509677339891</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391677</v>
+        <v>199.8170158391678</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345685</v>
+        <v>72.48650227345689</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248194</v>
+        <v>13.92472468248195</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819656</v>
+        <v>0.2544781209819658</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,46 +31358,46 @@
         <v>1.701972480128797</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43747105808601</v>
+        <v>16.43747105808602</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917129</v>
+        <v>58.59861389917132</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142737</v>
+        <v>160.7990754142738</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829031</v>
+        <v>274.8312315829032</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437547</v>
+        <v>369.5445071437549</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484235</v>
+        <v>431.2410095484237</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734978</v>
+        <v>442.6546758734981</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138018</v>
+        <v>404.9425488138021</v>
       </c>
       <c r="P6" t="n">
-        <v>325.002095788805</v>
+        <v>325.0020957888052</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.255294130125</v>
+        <v>217.2552941301251</v>
       </c>
       <c r="R6" t="n">
         <v>105.6715895995757</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923442</v>
+        <v>31.61339233923444</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571769</v>
+        <v>6.860143461571773</v>
       </c>
       <c r="U6" t="n">
-        <v>0.111971873692684</v>
+        <v>0.1119718736926841</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.426876554378902</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893242</v>
+        <v>12.68622972893243</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168552</v>
+        <v>42.91006947168555</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945883</v>
+        <v>100.8801723945884</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087487</v>
+        <v>165.7771124087488</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210233</v>
+        <v>212.1376288210234</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014127</v>
+        <v>223.6693857014128</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350915</v>
+        <v>218.3510276350916</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589379</v>
+        <v>201.682515158938</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496082</v>
+        <v>172.5742334496083</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216733</v>
+        <v>119.4814540216734</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689132</v>
+        <v>64.15755852689136</v>
       </c>
       <c r="S7" t="n">
-        <v>24.8665668613123</v>
+        <v>24.86656686131232</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709851</v>
+        <v>6.096654368709855</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884927</v>
+        <v>0.07782963023884931</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869145</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.4972987763924</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975128</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544658</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954562</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118017</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956807</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.010221962036</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.923732282597</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469213</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598382</v>
+        <v>144.9058654583207</v>
       </c>
       <c r="L12" t="n">
-        <v>561.480683474775</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821482</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340506</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924475</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>411.2476038555585</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811713</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377487</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32081,19 +32081,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>198.5607970756955</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,13 +34863,13 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005487</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>75.94151139701812</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197781</v>
+        <v>88.93550073197798</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782662</v>
+        <v>184.5422899782665</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907825</v>
+        <v>266.2155359907828</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836599</v>
+        <v>328.2054087836602</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298419</v>
+        <v>338.1765279298422</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108157</v>
+        <v>305.8605449108161</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304544</v>
+        <v>226.1954029304547</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654413</v>
+        <v>121.2039874654415</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>160.0524840880159</v>
+        <v>33.96144874760714</v>
       </c>
       <c r="K6" t="n">
-        <v>136.9897926085441</v>
+        <v>184.7668570618578</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638806</v>
+        <v>230.9901273638807</v>
       </c>
       <c r="M6" t="n">
-        <v>469.5770017178641</v>
+        <v>289.1069756264054</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901645</v>
+        <v>311.3129637901648</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693574</v>
+        <v>262.3463043693577</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744748</v>
+        <v>469.5770017178647</v>
       </c>
       <c r="Q6" t="n">
-        <v>91.52508096200555</v>
+        <v>77.27352004410358</v>
       </c>
       <c r="R6" t="n">
-        <v>5.513755446932535</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915568</v>
+        <v>7.520992277915624</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828659</v>
+        <v>143.507620582866</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813394</v>
+        <v>239.7276540813396</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632533</v>
+        <v>263.2532626632534</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4832000143201</v>
+        <v>262.4832000143202</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729776</v>
+        <v>226.2676430729777</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145017</v>
+        <v>169.8527927145018</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997893</v>
+        <v>33.31941076997899</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>379.9148430313203</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525323</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681835</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.974512521426</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739939</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067664</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081475</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553085</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854792</v>
+        <v>7.064426483961742</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949008</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507174</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480031</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
-        <v>277.2731964412283</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186281</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323315</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.3763835677632</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010439</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125101</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.261899706045</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
